--- a/config/cases.xlsx
+++ b/config/cases.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases_paper!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases_paper!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
   <si>
     <t>用例编号</t>
   </si>
@@ -33,91 +33,34 @@
     <t>试卷名称（与网页端一致）</t>
   </si>
   <si>
+    <t>单元（仅限单元测试，其他为空）</t>
+  </si>
+  <si>
     <t>测试结果</t>
   </si>
   <si>
-    <t>CS009</t>
+    <t>CS097</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>上海市高考人机对话模拟试卷01</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>CS140</t>
   </si>
   <si>
     <t>10B</t>
   </si>
   <si>
-    <t>Unit05 Food &amp; drinks高考仿真练习B卷(上海·高一)</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>CS025</t>
-  </si>
-  <si>
-    <t>Units01-04 阶段模拟测卷1(上海·高一)</t>
-  </si>
-  <si>
-    <t>CS073</t>
-  </si>
-  <si>
-    <t>11B</t>
-  </si>
-  <si>
-    <t>Unit20 Literature and art高考仿真练习B卷(上海·高二)</t>
-  </si>
-  <si>
-    <t>CS074</t>
-  </si>
-  <si>
-    <t>Unit20 Literature and art基础诵读练习A卷(上海·高二)</t>
-  </si>
-  <si>
-    <t>CS097</t>
-  </si>
-  <si>
-    <t>12B</t>
-  </si>
-  <si>
-    <t>上海市高考人机对话模拟试卷01</t>
-  </si>
-  <si>
-    <t>CS115</t>
-  </si>
-  <si>
-    <t>上海市高考人机对话模拟卷09</t>
-  </si>
-  <si>
-    <t>CS116</t>
-  </si>
-  <si>
-    <t>上海市高考人机对话模拟卷10</t>
-  </si>
-  <si>
-    <t>CS118</t>
-  </si>
-  <si>
-    <t>上海市高考人机对话模拟卷12</t>
-  </si>
-  <si>
-    <t>CS129</t>
-  </si>
-  <si>
-    <t>上海市高考人机对话模拟卷23</t>
-  </si>
-  <si>
-    <t>CS135</t>
-  </si>
-  <si>
-    <t>上海市高考人机对话模拟卷29</t>
-  </si>
-  <si>
-    <t>CS136</t>
-  </si>
-  <si>
-    <t>上海市高考人机对话模拟卷30</t>
-  </si>
-  <si>
-    <t>CS139</t>
-  </si>
-  <si>
-    <t>上海市高考人机对话模拟卷33</t>
+    <t>口语自测卷1</t>
+  </si>
+  <si>
+    <t>Unit 4</t>
   </si>
   <si>
     <t>作业模式</t>
@@ -341,11 +284,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -368,37 +311,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -413,6 +334,73 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -420,7 +408,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -436,14 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -465,39 +446,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -509,13 +459,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -526,6 +469,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -538,19 +487,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,31 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,115 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,6 +660,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,15 +685,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,15 +704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -779,6 +715,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,11 +745,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,8 +755,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,10 +768,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,137 +780,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,12 +933,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,23 +1259,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="64.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="33.675" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1354,209 +1292,45 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1346,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1594,54 +1368,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1656,30 +1430,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1691,30 +1465,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1726,30 +1500,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1761,30 +1535,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1796,30 +1570,30 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -1831,30 +1605,30 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1866,30 +1640,30 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1901,30 +1675,30 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1936,30 +1710,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1971,30 +1745,30 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -2006,30 +1780,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -2041,30 +1815,30 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -2076,24 +1850,24 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2">
         <v>8</v>
@@ -2111,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2134,25 +1908,25 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2">
         <v>1</v>
@@ -2164,30 +1938,30 @@
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -2199,30 +1973,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -2234,30 +2008,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -2269,30 +2043,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -2304,30 +2078,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -2339,30 +2113,30 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -2374,30 +2148,30 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -2409,30 +2183,30 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -2444,30 +2218,30 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -2479,30 +2253,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -2514,30 +2288,30 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -2549,30 +2323,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -2584,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config/cases.xlsx
+++ b/config/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="110">
   <si>
     <t>用例编号</t>
   </si>
@@ -39,28 +39,100 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>CS097</t>
-  </si>
-  <si>
-    <t>12B</t>
-  </si>
-  <si>
-    <t>上海市高考人机对话模拟试卷01</t>
+    <t>CS001</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A U01人机对话单元卷</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>CS140</t>
-  </si>
-  <si>
-    <t>10B</t>
-  </si>
-  <si>
-    <t>口语自测卷1</t>
-  </si>
-  <si>
-    <t>Unit 4</t>
+    <t>CS002</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A U02人机对话单元卷</t>
+  </si>
+  <si>
+    <t>CS003</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A U03人机对话单元卷</t>
+  </si>
+  <si>
+    <t>CS004</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A U04人机对话单元卷</t>
+  </si>
+  <si>
+    <t>CS005</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A U05人机对话单元卷</t>
+  </si>
+  <si>
+    <t>CS006</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A U06人机对话单元卷</t>
+  </si>
+  <si>
+    <t>CS007</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A U07人机对话单元卷</t>
+  </si>
+  <si>
+    <t>CS008</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A U08人机对话单元卷</t>
+  </si>
+  <si>
+    <t>CS009</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A人机对话期中卷1</t>
+  </si>
+  <si>
+    <t>CS010</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A人机对话期中卷2</t>
+  </si>
+  <si>
+    <t>CS011</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A人机对话期末卷1</t>
+  </si>
+  <si>
+    <t>CS012</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A人机对话期末卷2</t>
+  </si>
+  <si>
+    <t>CS013</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A人机对话期末卷3</t>
+  </si>
+  <si>
+    <t>CS014</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A人机对话期末卷4</t>
+  </si>
+  <si>
+    <t>CS015</t>
+  </si>
+  <si>
+    <t>沈阳市23年7A人机对话期末卷5</t>
   </si>
   <si>
     <t>作业模式</t>
@@ -284,13 +356,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -309,9 +381,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00BF00"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -326,112 +483,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -453,12 +505,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -469,187 +552,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,6 +743,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -674,32 +766,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,8 +793,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,20 +814,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,137 +863,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,6 +1016,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,77 +1348,294 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="64.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.675" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="42.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1368,54 +1674,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1435,25 +1741,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1470,25 +1776,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1505,25 +1811,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1540,25 +1846,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1575,25 +1881,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -1610,25 +1916,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1645,25 +1951,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1680,25 +1986,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1715,25 +2021,25 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1750,25 +2056,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -1785,25 +2091,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1820,25 +2126,25 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1855,19 +2161,19 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2">
         <v>8</v>
@@ -1908,25 +2214,25 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2">
         <v>1</v>
@@ -1943,25 +2249,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -1978,25 +2284,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -2013,25 +2319,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -2048,25 +2354,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -2083,25 +2389,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -2118,25 +2424,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -2153,25 +2459,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -2188,25 +2494,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -2223,25 +2529,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -2258,25 +2564,25 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -2293,25 +2599,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -2328,25 +2634,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>

--- a/config/cases.xlsx
+++ b/config/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="79">
   <si>
     <t>用例编号</t>
   </si>
@@ -39,145 +39,52 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>CS001</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A U01人机对话单元卷</t>
+    <t>作业模式</t>
+  </si>
+  <si>
+    <t>作业名称</t>
+  </si>
+  <si>
+    <t>教材年级</t>
+  </si>
+  <si>
+    <t>单元（用|隔开）</t>
+  </si>
+  <si>
+    <t>作业类型</t>
+  </si>
+  <si>
+    <t>作业索引1,2|4,5</t>
+  </si>
+  <si>
+    <t>1直接发布 2定时发布</t>
+  </si>
+  <si>
+    <t>vip</t>
+  </si>
+  <si>
+    <t>是否需要学生练习</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>CS0001</t>
+  </si>
+  <si>
+    <t>自动化发布作业1</t>
+  </si>
+  <si>
+    <t>八年级上</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>CS002</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A U02人机对话单元卷</t>
-  </si>
-  <si>
-    <t>CS003</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A U03人机对话单元卷</t>
-  </si>
-  <si>
-    <t>CS004</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A U04人机对话单元卷</t>
-  </si>
-  <si>
-    <t>CS005</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A U05人机对话单元卷</t>
-  </si>
-  <si>
-    <t>CS006</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A U06人机对话单元卷</t>
-  </si>
-  <si>
-    <t>CS007</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A U07人机对话单元卷</t>
-  </si>
-  <si>
-    <t>CS008</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A U08人机对话单元卷</t>
-  </si>
-  <si>
-    <t>CS009</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A人机对话期中卷1</t>
-  </si>
-  <si>
-    <t>CS010</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A人机对话期中卷2</t>
-  </si>
-  <si>
-    <t>CS011</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A人机对话期末卷1</t>
-  </si>
-  <si>
-    <t>CS012</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A人机对话期末卷2</t>
-  </si>
-  <si>
-    <t>CS013</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A人机对话期末卷3</t>
-  </si>
-  <si>
-    <t>CS014</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A人机对话期末卷4</t>
-  </si>
-  <si>
-    <t>CS015</t>
-  </si>
-  <si>
-    <t>沈阳市23年7A人机对话期末卷5</t>
-  </si>
-  <si>
-    <t>作业模式</t>
-  </si>
-  <si>
-    <t>作业名称</t>
-  </si>
-  <si>
-    <t>教材年级</t>
-  </si>
-  <si>
-    <t>单元（用|隔开）</t>
-  </si>
-  <si>
-    <t>作业类型</t>
-  </si>
-  <si>
-    <t>作业索引1,2|4,5</t>
-  </si>
-  <si>
-    <t>1直接发布 2定时发布</t>
-  </si>
-  <si>
-    <t>vip</t>
-  </si>
-  <si>
-    <t>是否需要学生练习</t>
-  </si>
-  <si>
-    <t>结果</t>
-  </si>
-  <si>
-    <t>CS0001</t>
-  </si>
-  <si>
-    <t>自动化发布作业1</t>
-  </si>
-  <si>
-    <t>八年级上</t>
-  </si>
-  <si>
-    <t>1|2</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>CS0002</t>
@@ -356,13 +263,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -386,10 +293,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF00BF00"/>
-      <name val="楷体"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -399,9 +307,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -415,23 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -444,39 +406,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -504,44 +443,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -552,19 +453,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,90 +603,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -667,72 +634,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,28 +650,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,8 +689,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,36 +744,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,149 +752,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,9 +920,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -1382,261 +1280,6 @@
       </c>
       <c r="F1" s="8" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1674,54 +1317,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1736,30 +1379,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1771,30 +1414,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1806,30 +1449,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1841,30 +1484,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1876,30 +1519,30 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -1911,30 +1554,30 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1946,30 +1589,30 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1981,30 +1624,30 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -2016,30 +1659,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -2051,30 +1694,30 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -2086,30 +1729,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -2121,30 +1764,30 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -2156,24 +1799,24 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2">
         <v>8</v>
@@ -2191,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2214,25 +1857,25 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2">
         <v>1</v>
@@ -2244,30 +1887,30 @@
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -2279,30 +1922,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -2314,30 +1957,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -2349,30 +1992,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -2384,30 +2027,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -2419,30 +2062,30 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -2454,30 +2097,30 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -2489,30 +2132,30 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -2524,30 +2167,30 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -2559,30 +2202,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -2594,30 +2237,30 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -2629,30 +2272,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -2664,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/config/cases.xlsx
+++ b/config/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="240">
   <si>
     <t>用例编号</t>
   </si>
@@ -39,6 +39,531 @@
     <t>测试结果</t>
   </si>
   <si>
+    <t>CS0001</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 1单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0002</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 2单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0003</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 3单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0004</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 4单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0005</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 5单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0006</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 6单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0007</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 7单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0008</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 8单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0009</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 9单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0010</t>
+  </si>
+  <si>
+    <t>海南州7A期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0011</t>
+  </si>
+  <si>
+    <t>海南州7A期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0012</t>
+  </si>
+  <si>
+    <t>海南州7A期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0013</t>
+  </si>
+  <si>
+    <t>海南州7A期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0014</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 01单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0015</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 02单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0016</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 03单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0017</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 04单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0018</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 05单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0019</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 06单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0020</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 07单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0021</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 08单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0022</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 09单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0023</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 10单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0024</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 11单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0025</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 12单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0026</t>
+  </si>
+  <si>
+    <t>海南州7B期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0027</t>
+  </si>
+  <si>
+    <t>海南州7B期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0028</t>
+  </si>
+  <si>
+    <t>海南州7B期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0029</t>
+  </si>
+  <si>
+    <t>海南州7B期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0030</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 01单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0031</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 02单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0032</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 03单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0033</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 04单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0034</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 05单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0035</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 06单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0036</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 07单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0037</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 08单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0038</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 09单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0039</t>
+  </si>
+  <si>
+    <t>海南州8AUnit 10单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0040</t>
+  </si>
+  <si>
+    <t>海南州8A期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0041</t>
+  </si>
+  <si>
+    <t>海南州8A期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0042</t>
+  </si>
+  <si>
+    <t>海南州8A期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0043</t>
+  </si>
+  <si>
+    <t>海南州8A期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0044</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 01单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0045</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 02单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0046</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 03单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0047</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 04单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0048</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 05单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0049</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 06单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0050</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 07单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0051</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 08单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0052</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 09单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0053</t>
+  </si>
+  <si>
+    <t>海南州8BUnit 10单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0054</t>
+  </si>
+  <si>
+    <t>海南州8B期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0055</t>
+  </si>
+  <si>
+    <t>海南州8B期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0056</t>
+  </si>
+  <si>
+    <t>海南州8B期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0057</t>
+  </si>
+  <si>
+    <t>海南州8B期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0058</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 01单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0059</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 02单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0060</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 03单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0061</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 04单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0062</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 05单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0063</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 06单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0064</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 07单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0065</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 08单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0066</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 09单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0067</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 10单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0068</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 11单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0069</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 12单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0070</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 13单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0071</t>
+  </si>
+  <si>
+    <t>海南州9全Unit 14单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0072</t>
+  </si>
+  <si>
+    <t>海南州9全期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0073</t>
+  </si>
+  <si>
+    <t>海南州9全期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0074</t>
+  </si>
+  <si>
+    <t>海南州9全期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0075</t>
+  </si>
+  <si>
+    <t>海南州9全期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0076</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷01</t>
+  </si>
+  <si>
+    <t>CS0077</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷02</t>
+  </si>
+  <si>
+    <t>CS0078</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷03</t>
+  </si>
+  <si>
+    <t>CS0079</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷04</t>
+  </si>
+  <si>
+    <t>CS0080</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷05</t>
+  </si>
+  <si>
+    <t>CS0081</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷06</t>
+  </si>
+  <si>
+    <t>CS0082</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷07</t>
+  </si>
+  <si>
+    <t>CS0083</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷08</t>
+  </si>
+  <si>
+    <t>CS0084</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷09</t>
+  </si>
+  <si>
+    <t>CS0085</t>
+  </si>
+  <si>
+    <t>海南州中考模拟卷10</t>
+  </si>
+  <si>
     <t>作业模式</t>
   </si>
   <si>
@@ -69,9 +594,6 @@
     <t>结果</t>
   </si>
   <si>
-    <t>CS0001</t>
-  </si>
-  <si>
     <t>自动化发布作业1</t>
   </si>
   <si>
@@ -87,9 +609,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>CS0002</t>
-  </si>
-  <si>
     <t>自动化发布作业2</t>
   </si>
   <si>
@@ -105,9 +624,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>CS0003</t>
-  </si>
-  <si>
     <t>自动化发布作业3</t>
   </si>
   <si>
@@ -117,9 +633,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>CS0004</t>
-  </si>
-  <si>
     <t>自动化发布作业4</t>
   </si>
   <si>
@@ -129,18 +642,12 @@
     <t>10</t>
   </si>
   <si>
-    <t>CS0005</t>
-  </si>
-  <si>
     <t>自动化发布作业5</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>CS0006</t>
-  </si>
-  <si>
     <t>自动化发布作业6</t>
   </si>
   <si>
@@ -156,9 +663,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>CS0007</t>
-  </si>
-  <si>
     <t>自动化发布作业7</t>
   </si>
   <si>
@@ -168,9 +672,6 @@
     <t>2,4</t>
   </si>
   <si>
-    <t>CS0008</t>
-  </si>
-  <si>
     <t>自动化发布作业8</t>
   </si>
   <si>
@@ -180,9 +681,6 @@
     <t>3,5</t>
   </si>
   <si>
-    <t>CS0009</t>
-  </si>
-  <si>
     <t>自动化发布作业9</t>
   </si>
   <si>
@@ -195,9 +693,6 @@
     <t>6,8|2,5</t>
   </si>
   <si>
-    <t>CS0010</t>
-  </si>
-  <si>
     <t>自动化发布作业10</t>
   </si>
   <si>
@@ -210,9 +705,6 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>CS0011</t>
-  </si>
-  <si>
     <t>自动化发布作业11</t>
   </si>
   <si>
@@ -225,9 +717,6 @@
     <t>1,3,8|2,6</t>
   </si>
   <si>
-    <t>CS0012</t>
-  </si>
-  <si>
     <t>自动化发布作业12</t>
   </si>
   <si>
@@ -237,9 +726,6 @@
     <t>1,3,8,9</t>
   </si>
   <si>
-    <t>CS0013</t>
-  </si>
-  <si>
     <t>自动化发布作业13</t>
   </si>
   <si>
@@ -247,9 +733,6 @@
   </si>
   <si>
     <t>1,3,8</t>
-  </si>
-  <si>
-    <t>CS0014</t>
   </si>
   <si>
     <t>自动化发布作业14</t>
@@ -263,11 +746,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -294,6 +777,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -301,7 +791,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -314,8 +804,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -337,13 +895,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -354,22 +905,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -390,59 +926,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -459,7 +942,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,25 +1002,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,127 +1104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,30 +1127,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -689,8 +1148,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,7 +1208,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +1235,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,137 +1247,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,6 +1404,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1246,10 +1732,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -1280,6 +1766,1196 @@
       </c>
       <c r="F1" s="8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="8">
+        <v>2</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="8">
+        <v>2</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="8">
+        <v>2</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="8">
+        <v>2</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="8">
+        <v>2</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="8">
+        <v>2</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="8">
+        <v>2</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="8">
+        <v>2</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="8">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="8">
+        <v>2</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="8">
+        <v>2</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="8">
+        <v>2</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="8">
+        <v>2</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="8">
+        <v>2</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="8">
+        <v>2</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="8">
+        <v>2</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="8">
+        <v>2</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="8">
+        <v>2</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="8">
+        <v>2</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="8">
+        <v>2</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="8">
+        <v>2</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="8">
+        <v>2</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="8">
+        <v>2</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="8">
+        <v>2</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="8">
+        <v>2</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="8">
+        <v>2</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="8">
+        <v>2</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="8">
+        <v>2</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="8">
+        <v>2</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="8">
+        <v>2</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="8">
+        <v>2</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="8">
+        <v>2</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1317,54 +2993,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1379,30 +3055,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1414,30 +3090,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1449,30 +3125,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1484,30 +3160,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1519,30 +3195,30 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -1554,30 +3230,30 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1589,30 +3265,30 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1624,30 +3300,30 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1659,30 +3335,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1694,30 +3370,30 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -1729,30 +3405,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1764,30 +3440,30 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1799,24 +3475,24 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="F15" s="2">
         <v>8</v>
@@ -1834,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1857,25 +3533,25 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H1" s="2">
         <v>1</v>
@@ -1887,30 +3563,30 @@
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -1922,30 +3598,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1957,30 +3633,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1992,30 +3668,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -2027,30 +3703,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -2062,30 +3738,30 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -2097,30 +3773,30 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -2132,30 +3808,30 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -2167,30 +3843,30 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -2202,30 +3878,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -2237,30 +3913,30 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -2272,30 +3948,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -2307,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/config/cases.xlsx
+++ b/config/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="240">
   <si>
     <t>用例编号</t>
   </si>
@@ -39,6 +39,531 @@
     <t>测试结果</t>
   </si>
   <si>
+    <t>CS0001</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>海北州7AUnit 1单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0002</t>
+  </si>
+  <si>
+    <t>海北州7AUnit 2单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0003</t>
+  </si>
+  <si>
+    <t>海北州7AUnit 3单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0004</t>
+  </si>
+  <si>
+    <t>海北州7AUnit 4单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0005</t>
+  </si>
+  <si>
+    <t>海北州7AUnit 5单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0006</t>
+  </si>
+  <si>
+    <t>海北州7AUnit 6单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0007</t>
+  </si>
+  <si>
+    <t>海北州7AUnit 7单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0008</t>
+  </si>
+  <si>
+    <t>海北州7AUnit 8单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0009</t>
+  </si>
+  <si>
+    <t>海北州7AUnit 9单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0010</t>
+  </si>
+  <si>
+    <t>海北州7A期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0011</t>
+  </si>
+  <si>
+    <t>海北州7A期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0012</t>
+  </si>
+  <si>
+    <t>海北州7A期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0013</t>
+  </si>
+  <si>
+    <t>海北州7A期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0014</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 01单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0015</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 02单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0016</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 03单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0017</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 04单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0018</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 05单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0019</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 06单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0020</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 07单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0021</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 08单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0022</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 09单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0023</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 10单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0024</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 11单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0025</t>
+  </si>
+  <si>
+    <t>海北州7BUnit 12单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0026</t>
+  </si>
+  <si>
+    <t>海北州7B期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0027</t>
+  </si>
+  <si>
+    <t>海北州7B期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0028</t>
+  </si>
+  <si>
+    <t>海北州7B期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0029</t>
+  </si>
+  <si>
+    <t>海北州7B期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0030</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 01单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0031</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 02单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0032</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 03单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0033</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 04单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0034</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 05单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0035</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 06单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0036</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 07单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0037</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 08单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0038</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 09单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0039</t>
+  </si>
+  <si>
+    <t>海北州8AUnit 10单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0040</t>
+  </si>
+  <si>
+    <t>海北州8A期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0041</t>
+  </si>
+  <si>
+    <t>海北州8A期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0042</t>
+  </si>
+  <si>
+    <t>海北州8A期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0043</t>
+  </si>
+  <si>
+    <t>海北州8A期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0044</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 01单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0045</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 02单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0046</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 03单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0047</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 04单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0048</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 05单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0049</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 06单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0050</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 07单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0051</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 08单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0052</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 09单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0053</t>
+  </si>
+  <si>
+    <t>海北州8BUnit 10单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0054</t>
+  </si>
+  <si>
+    <t>海北州8B期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0055</t>
+  </si>
+  <si>
+    <t>海北州8B期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0056</t>
+  </si>
+  <si>
+    <t>海北州8B期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0057</t>
+  </si>
+  <si>
+    <t>海北州8B期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0058</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 01单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0059</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 02单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0060</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 03单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0061</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 04单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0062</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 05单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0063</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 06单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0064</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 07单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0065</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 08单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0066</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 09单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0067</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 10单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0068</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 11单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0069</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 12单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0070</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 13单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0071</t>
+  </si>
+  <si>
+    <t>海北州9全Unit 14单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0072</t>
+  </si>
+  <si>
+    <t>海北州9全期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0073</t>
+  </si>
+  <si>
+    <t>海北州9全期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0074</t>
+  </si>
+  <si>
+    <t>海北州9全期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0075</t>
+  </si>
+  <si>
+    <t>海北州9全期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0076</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷01</t>
+  </si>
+  <si>
+    <t>CS0077</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷02</t>
+  </si>
+  <si>
+    <t>CS0078</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷03</t>
+  </si>
+  <si>
+    <t>CS0079</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷04</t>
+  </si>
+  <si>
+    <t>CS0080</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷05</t>
+  </si>
+  <si>
+    <t>CS0081</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷06</t>
+  </si>
+  <si>
+    <t>CS0082</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷07</t>
+  </si>
+  <si>
+    <t>CS0083</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷08</t>
+  </si>
+  <si>
+    <t>CS0084</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷09</t>
+  </si>
+  <si>
+    <t>CS0085</t>
+  </si>
+  <si>
+    <t>海北州中考模拟卷10</t>
+  </si>
+  <si>
     <t>作业模式</t>
   </si>
   <si>
@@ -69,9 +594,6 @@
     <t>结果</t>
   </si>
   <si>
-    <t>CS0001</t>
-  </si>
-  <si>
     <t>自动化发布作业1</t>
   </si>
   <si>
@@ -87,9 +609,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>CS0002</t>
-  </si>
-  <si>
     <t>自动化发布作业2</t>
   </si>
   <si>
@@ -105,9 +624,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>CS0003</t>
-  </si>
-  <si>
     <t>自动化发布作业3</t>
   </si>
   <si>
@@ -117,9 +633,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>CS0004</t>
-  </si>
-  <si>
     <t>自动化发布作业4</t>
   </si>
   <si>
@@ -129,18 +642,12 @@
     <t>10</t>
   </si>
   <si>
-    <t>CS0005</t>
-  </si>
-  <si>
     <t>自动化发布作业5</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>CS0006</t>
-  </si>
-  <si>
     <t>自动化发布作业6</t>
   </si>
   <si>
@@ -156,9 +663,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>CS0007</t>
-  </si>
-  <si>
     <t>自动化发布作业7</t>
   </si>
   <si>
@@ -168,9 +672,6 @@
     <t>2,4</t>
   </si>
   <si>
-    <t>CS0008</t>
-  </si>
-  <si>
     <t>自动化发布作业8</t>
   </si>
   <si>
@@ -180,9 +681,6 @@
     <t>3,5</t>
   </si>
   <si>
-    <t>CS0009</t>
-  </si>
-  <si>
     <t>自动化发布作业9</t>
   </si>
   <si>
@@ -195,9 +693,6 @@
     <t>6,8|2,5</t>
   </si>
   <si>
-    <t>CS0010</t>
-  </si>
-  <si>
     <t>自动化发布作业10</t>
   </si>
   <si>
@@ -210,9 +705,6 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>CS0011</t>
-  </si>
-  <si>
     <t>自动化发布作业11</t>
   </si>
   <si>
@@ -225,9 +717,6 @@
     <t>1,3,8|2,6</t>
   </si>
   <si>
-    <t>CS0012</t>
-  </si>
-  <si>
     <t>自动化发布作业12</t>
   </si>
   <si>
@@ -237,9 +726,6 @@
     <t>1,3,8,9</t>
   </si>
   <si>
-    <t>CS0013</t>
-  </si>
-  <si>
     <t>自动化发布作业13</t>
   </si>
   <si>
@@ -247,9 +733,6 @@
   </si>
   <si>
     <t>1,3,8</t>
-  </si>
-  <si>
-    <t>CS0014</t>
   </si>
   <si>
     <t>自动化发布作业14</t>
@@ -263,11 +746,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -301,7 +784,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -309,14 +792,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -329,8 +812,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -339,14 +823,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,9 +843,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -409,7 +884,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -417,7 +899,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -430,15 +912,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -453,7 +936,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,37 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +1008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,31 +1020,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,13 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,13 +1080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,25 +1098,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,17 +1130,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,21 +1150,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,11 +1178,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,15 +1227,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -752,10 +1235,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,137 +1247,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,8 +1402,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1246,20 +1741,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="13.0833333333333" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.875" style="8" customWidth="1"/>
     <col min="2" max="2" width="27.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="8" customWidth="1"/>
-    <col min="4" max="5" width="42.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="8"/>
+    <col min="4" max="4" width="34.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="42.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="13.0833333333333" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1278,8 +1774,1207 @@
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="8">
+        <v>2</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="8">
+        <v>2</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="8">
+        <v>2</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="8">
+        <v>2</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="8">
+        <v>2</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="8">
+        <v>2</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="8">
+        <v>2</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="8">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="8">
+        <v>2</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="8">
+        <v>2</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="8">
+        <v>2</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="8">
+        <v>2</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="8">
+        <v>2</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="8">
+        <v>2</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="8">
+        <v>2</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="8">
+        <v>2</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="8">
+        <v>2</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="8">
+        <v>2</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="8">
+        <v>2</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="8">
+        <v>2</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="8">
+        <v>2</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="8">
+        <v>2</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="8">
+        <v>2</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="11">
+        <v>2</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="8">
+        <v>2</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="8">
+        <v>2</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="8">
+        <v>2</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="8">
+        <v>2</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="8">
+        <v>2</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1317,54 +3012,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1379,30 +3074,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1414,30 +3109,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1449,30 +3144,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1484,30 +3179,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1519,30 +3214,30 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -1554,30 +3249,30 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1589,30 +3284,30 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1624,30 +3319,30 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1659,30 +3354,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1694,30 +3389,30 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -1729,30 +3424,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1764,30 +3459,30 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1799,24 +3494,24 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="F15" s="2">
         <v>8</v>
@@ -1834,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1857,25 +3552,25 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H1" s="2">
         <v>1</v>
@@ -1887,30 +3582,30 @@
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -1922,30 +3617,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1957,30 +3652,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1992,30 +3687,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -2027,30 +3722,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -2062,30 +3757,30 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -2097,30 +3792,30 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -2132,30 +3827,30 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -2167,30 +3862,30 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -2202,30 +3897,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -2237,30 +3932,30 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -2272,30 +3967,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -2307,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/config/cases.xlsx
+++ b/config/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="241">
   <si>
     <t>用例编号</t>
   </si>
@@ -45,79 +45,85 @@
     <t>7A</t>
   </si>
   <si>
-    <t>海北州7AUnit 1单元检测卷01</t>
+    <t>海南州7AUnit 1单元检测卷01</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>CS0002</t>
   </si>
   <si>
-    <t>海北州7AUnit 2单元检测卷01</t>
+    <t>海南州7AUnit 2单元检测卷01</t>
   </si>
   <si>
     <t>CS0003</t>
   </si>
   <si>
-    <t>海北州7AUnit 3单元检测卷01</t>
+    <t>海南州7AUnit 3单元检测卷01</t>
   </si>
   <si>
     <t>CS0004</t>
   </si>
   <si>
-    <t>海北州7AUnit 4单元检测卷01</t>
+    <t>海南州7AUnit 4单元检测卷01</t>
+  </si>
+  <si>
+    <t>abort</t>
   </si>
   <si>
     <t>CS0005</t>
   </si>
   <si>
-    <t>海北州7AUnit 5单元检测卷01</t>
+    <t>海南州7AUnit 5单元检测卷01</t>
   </si>
   <si>
     <t>CS0006</t>
   </si>
   <si>
-    <t>海北州7AUnit 6单元检测卷01</t>
+    <t>海南州7AUnit 6单元检测卷01</t>
   </si>
   <si>
     <t>CS0007</t>
   </si>
   <si>
-    <t>海北州7AUnit 7单元检测卷01</t>
+    <t>海南州7AUnit 7单元检测卷01</t>
   </si>
   <si>
     <t>CS0008</t>
   </si>
   <si>
-    <t>海北州7AUnit 8单元检测卷01</t>
+    <t>海南州7AUnit 8单元检测卷01</t>
   </si>
   <si>
     <t>CS0009</t>
   </si>
   <si>
-    <t>海北州7AUnit 9单元检测卷01</t>
+    <t>海南州7AUnit 9单元检测卷01</t>
   </si>
   <si>
     <t>CS0010</t>
   </si>
   <si>
-    <t>海北州7A期中检测卷01</t>
+    <t>海南州7A期中检测卷01</t>
   </si>
   <si>
     <t>CS0011</t>
   </si>
   <si>
-    <t>海北州7A期中检测卷02</t>
+    <t>海南州7A期中检测卷02</t>
   </si>
   <si>
     <t>CS0012</t>
   </si>
   <si>
-    <t>海北州7A期末检测卷01</t>
+    <t>海南州7A期末检测卷01</t>
   </si>
   <si>
     <t>CS0013</t>
   </si>
   <si>
-    <t>海北州7A期末检测卷02</t>
+    <t>海南州7A期末检测卷02</t>
   </si>
   <si>
     <t>CS0014</t>
@@ -126,97 +132,97 @@
     <t>7B</t>
   </si>
   <si>
-    <t>海北州7BUnit 01单元检测卷01</t>
+    <t>海南州7BUnit 01单元检测卷01</t>
   </si>
   <si>
     <t>CS0015</t>
   </si>
   <si>
-    <t>海北州7BUnit 02单元检测卷01</t>
+    <t>海南州7BUnit 02单元检测卷01</t>
   </si>
   <si>
     <t>CS0016</t>
   </si>
   <si>
-    <t>海北州7BUnit 03单元检测卷01</t>
+    <t>海南州7BUnit 03单元检测卷01</t>
   </si>
   <si>
     <t>CS0017</t>
   </si>
   <si>
-    <t>海北州7BUnit 04单元检测卷01</t>
+    <t>海南州7BUnit 04单元检测卷01</t>
   </si>
   <si>
     <t>CS0018</t>
   </si>
   <si>
-    <t>海北州7BUnit 05单元检测卷01</t>
+    <t>海南州7BUnit 05单元检测卷01</t>
   </si>
   <si>
     <t>CS0019</t>
   </si>
   <si>
-    <t>海北州7BUnit 06单元检测卷01</t>
+    <t>海南州7BUnit 06单元检测卷01</t>
   </si>
   <si>
     <t>CS0020</t>
   </si>
   <si>
-    <t>海北州7BUnit 07单元检测卷01</t>
+    <t>海南州7BUnit 07单元检测卷01</t>
   </si>
   <si>
     <t>CS0021</t>
   </si>
   <si>
-    <t>海北州7BUnit 08单元检测卷01</t>
+    <t>海南州7BUnit 08单元检测卷01</t>
   </si>
   <si>
     <t>CS0022</t>
   </si>
   <si>
-    <t>海北州7BUnit 09单元检测卷01</t>
+    <t>海南州7BUnit 09单元检测卷01</t>
   </si>
   <si>
     <t>CS0023</t>
   </si>
   <si>
-    <t>海北州7BUnit 10单元检测卷01</t>
+    <t>海南州7BUnit 10单元检测卷01</t>
   </si>
   <si>
     <t>CS0024</t>
   </si>
   <si>
-    <t>海北州7BUnit 11单元检测卷01</t>
+    <t>海南州7BUnit 11单元检测卷01</t>
   </si>
   <si>
     <t>CS0025</t>
   </si>
   <si>
-    <t>海北州7BUnit 12单元检测卷01</t>
+    <t>海南州7BUnit 12单元检测卷01</t>
   </si>
   <si>
     <t>CS0026</t>
   </si>
   <si>
-    <t>海北州7B期中检测卷01</t>
+    <t>海南州7B期中检测卷01</t>
   </si>
   <si>
     <t>CS0027</t>
   </si>
   <si>
-    <t>海北州7B期中检测卷02</t>
+    <t>海南州7B期中检测卷02</t>
   </si>
   <si>
     <t>CS0028</t>
   </si>
   <si>
-    <t>海北州7B期末检测卷01</t>
+    <t>海南州7B期末检测卷01</t>
   </si>
   <si>
     <t>CS0029</t>
   </si>
   <si>
-    <t>海北州7B期末检测卷02</t>
+    <t>海南州7B期末检测卷02</t>
   </si>
   <si>
     <t>CS0030</t>
@@ -225,85 +231,85 @@
     <t>8A</t>
   </si>
   <si>
-    <t>海北州8AUnit 01单元检测卷01</t>
+    <t>海南州8AUnit 01单元检测卷01</t>
   </si>
   <si>
     <t>CS0031</t>
   </si>
   <si>
-    <t>海北州8AUnit 02单元检测卷01</t>
+    <t>海南州8AUnit 02单元检测卷01</t>
   </si>
   <si>
     <t>CS0032</t>
   </si>
   <si>
-    <t>海北州8AUnit 03单元检测卷01</t>
+    <t>海南州8AUnit 03单元检测卷01</t>
   </si>
   <si>
     <t>CS0033</t>
   </si>
   <si>
-    <t>海北州8AUnit 04单元检测卷01</t>
+    <t>海南州8AUnit 04单元检测卷01</t>
   </si>
   <si>
     <t>CS0034</t>
   </si>
   <si>
-    <t>海北州8AUnit 05单元检测卷01</t>
+    <t>海南州8AUnit 05单元检测卷01</t>
   </si>
   <si>
     <t>CS0035</t>
   </si>
   <si>
-    <t>海北州8AUnit 06单元检测卷01</t>
+    <t>海南州8AUnit 06单元检测卷01</t>
   </si>
   <si>
     <t>CS0036</t>
   </si>
   <si>
-    <t>海北州8AUnit 07单元检测卷01</t>
+    <t>海南州8AUnit 07单元检测卷01</t>
   </si>
   <si>
     <t>CS0037</t>
   </si>
   <si>
-    <t>海北州8AUnit 08单元检测卷01</t>
+    <t>海南州8AUnit 08单元检测卷01</t>
   </si>
   <si>
     <t>CS0038</t>
   </si>
   <si>
-    <t>海北州8AUnit 09单元检测卷01</t>
+    <t>海南州8AUnit 09单元检测卷01</t>
   </si>
   <si>
     <t>CS0039</t>
   </si>
   <si>
-    <t>海北州8AUnit 10单元检测卷01</t>
+    <t>海南州8AUnit 10单元检测卷01</t>
   </si>
   <si>
     <t>CS0040</t>
   </si>
   <si>
-    <t>海北州8A期中检测卷01</t>
+    <t>海南州8A期中检测卷01</t>
   </si>
   <si>
     <t>CS0041</t>
   </si>
   <si>
-    <t>海北州8A期中检测卷02</t>
+    <t>海南州8A期中检测卷02</t>
   </si>
   <si>
     <t>CS0042</t>
   </si>
   <si>
-    <t>海北州8A期末检测卷01</t>
+    <t>海南州8A期末检测卷01</t>
   </si>
   <si>
     <t>CS0043</t>
   </si>
   <si>
-    <t>海北州8A期末检测卷02</t>
+    <t>海南州8A期末检测卷02</t>
   </si>
   <si>
     <t>CS0044</t>
@@ -312,85 +318,85 @@
     <t>8B</t>
   </si>
   <si>
-    <t>海北州8BUnit 01单元检测卷01</t>
+    <t>海南州8BUnit 01单元检测卷01</t>
   </si>
   <si>
     <t>CS0045</t>
   </si>
   <si>
-    <t>海北州8BUnit 02单元检测卷01</t>
+    <t>海南州8BUnit 02单元检测卷01</t>
   </si>
   <si>
     <t>CS0046</t>
   </si>
   <si>
-    <t>海北州8BUnit 03单元检测卷01</t>
+    <t>海南州8BUnit 03单元检测卷01</t>
   </si>
   <si>
     <t>CS0047</t>
   </si>
   <si>
-    <t>海北州8BUnit 04单元检测卷01</t>
+    <t>海南州8BUnit 04单元检测卷01</t>
   </si>
   <si>
     <t>CS0048</t>
   </si>
   <si>
-    <t>海北州8BUnit 05单元检测卷01</t>
+    <t>海南州8BUnit 05单元检测卷01</t>
   </si>
   <si>
     <t>CS0049</t>
   </si>
   <si>
-    <t>海北州8BUnit 06单元检测卷01</t>
+    <t>海南州8BUnit 06单元检测卷01</t>
   </si>
   <si>
     <t>CS0050</t>
   </si>
   <si>
-    <t>海北州8BUnit 07单元检测卷01</t>
+    <t>海南州8BUnit 07单元检测卷01</t>
   </si>
   <si>
     <t>CS0051</t>
   </si>
   <si>
-    <t>海北州8BUnit 08单元检测卷01</t>
+    <t>海南州8BUnit 08单元检测卷01</t>
   </si>
   <si>
     <t>CS0052</t>
   </si>
   <si>
-    <t>海北州8BUnit 09单元检测卷01</t>
+    <t>海南州8BUnit 09单元检测卷01</t>
   </si>
   <si>
     <t>CS0053</t>
   </si>
   <si>
-    <t>海北州8BUnit 10单元检测卷01</t>
+    <t>海南州8BUnit 10单元检测卷01</t>
   </si>
   <si>
     <t>CS0054</t>
   </si>
   <si>
-    <t>海北州8B期中检测卷01</t>
+    <t>海南州8B期中检测卷01</t>
   </si>
   <si>
     <t>CS0055</t>
   </si>
   <si>
-    <t>海北州8B期中检测卷02</t>
+    <t>海南州8B期中检测卷02</t>
   </si>
   <si>
     <t>CS0056</t>
   </si>
   <si>
-    <t>海北州8B期末检测卷01</t>
+    <t>海南州8B期末检测卷01</t>
   </si>
   <si>
     <t>CS0057</t>
   </si>
   <si>
-    <t>海北州8B期末检测卷02</t>
+    <t>海南州8B期末检测卷02</t>
   </si>
   <si>
     <t>CS0058</t>
@@ -399,169 +405,169 @@
     <t>9C</t>
   </si>
   <si>
-    <t>海北州9全Unit 01单元检测卷01</t>
+    <t>海南州9全Unit 01单元检测卷01</t>
   </si>
   <si>
     <t>CS0059</t>
   </si>
   <si>
-    <t>海北州9全Unit 02单元检测卷01</t>
+    <t>海南州9全Unit 02单元检测卷01</t>
   </si>
   <si>
     <t>CS0060</t>
   </si>
   <si>
-    <t>海北州9全Unit 03单元检测卷01</t>
+    <t>海南州9全Unit 03单元检测卷01</t>
   </si>
   <si>
     <t>CS0061</t>
   </si>
   <si>
-    <t>海北州9全Unit 04单元检测卷01</t>
+    <t>海南州9全Unit 04单元检测卷01</t>
   </si>
   <si>
     <t>CS0062</t>
   </si>
   <si>
-    <t>海北州9全Unit 05单元检测卷01</t>
+    <t>海南州9全Unit 05单元检测卷01</t>
   </si>
   <si>
     <t>CS0063</t>
   </si>
   <si>
-    <t>海北州9全Unit 06单元检测卷01</t>
+    <t>海南州9全Unit 06单元检测卷01</t>
   </si>
   <si>
     <t>CS0064</t>
   </si>
   <si>
-    <t>海北州9全Unit 07单元检测卷01</t>
+    <t>海南州9全Unit 07单元检测卷01</t>
   </si>
   <si>
     <t>CS0065</t>
   </si>
   <si>
-    <t>海北州9全Unit 08单元检测卷01</t>
+    <t>海南州9全Unit 08单元检测卷01</t>
   </si>
   <si>
     <t>CS0066</t>
   </si>
   <si>
-    <t>海北州9全Unit 09单元检测卷01</t>
+    <t>海南州9全Unit 09单元检测卷01</t>
   </si>
   <si>
     <t>CS0067</t>
   </si>
   <si>
-    <t>海北州9全Unit 10单元检测卷01</t>
+    <t>海南州9全Unit 10单元检测卷01</t>
   </si>
   <si>
     <t>CS0068</t>
   </si>
   <si>
-    <t>海北州9全Unit 11单元检测卷01</t>
+    <t>海南州9全Unit 11单元检测卷01</t>
   </si>
   <si>
     <t>CS0069</t>
   </si>
   <si>
-    <t>海北州9全Unit 12单元检测卷01</t>
+    <t>海南州9全Unit 12单元检测卷01</t>
   </si>
   <si>
     <t>CS0070</t>
   </si>
   <si>
-    <t>海北州9全Unit 13单元检测卷01</t>
+    <t>海南州9全Unit 13单元检测卷01</t>
   </si>
   <si>
     <t>CS0071</t>
   </si>
   <si>
-    <t>海北州9全Unit 14单元检测卷01</t>
+    <t>海南州9全Unit 14单元检测卷01</t>
   </si>
   <si>
     <t>CS0072</t>
   </si>
   <si>
-    <t>海北州9全期中检测卷01</t>
+    <t>海南州9全期中检测卷01</t>
   </si>
   <si>
     <t>CS0073</t>
   </si>
   <si>
-    <t>海北州9全期中检测卷02</t>
+    <t>海南州9全期中检测卷02</t>
   </si>
   <si>
     <t>CS0074</t>
   </si>
   <si>
-    <t>海北州9全期末检测卷01</t>
+    <t>海南州9全期末检测卷01</t>
   </si>
   <si>
     <t>CS0075</t>
   </si>
   <si>
-    <t>海北州9全期末检测卷02</t>
+    <t>海南州9全期末检测卷02</t>
   </si>
   <si>
     <t>CS0076</t>
   </si>
   <si>
-    <t>海北州中考模拟卷01</t>
+    <t>海南州中考模拟卷01</t>
   </si>
   <si>
     <t>CS0077</t>
   </si>
   <si>
-    <t>海北州中考模拟卷02</t>
+    <t>海南州中考模拟卷02</t>
   </si>
   <si>
     <t>CS0078</t>
   </si>
   <si>
-    <t>海北州中考模拟卷03</t>
+    <t>海南州中考模拟卷03</t>
   </si>
   <si>
     <t>CS0079</t>
   </si>
   <si>
-    <t>海北州中考模拟卷04</t>
+    <t>海南州中考模拟卷04</t>
   </si>
   <si>
     <t>CS0080</t>
   </si>
   <si>
-    <t>海北州中考模拟卷05</t>
+    <t>海南州中考模拟卷05</t>
   </si>
   <si>
     <t>CS0081</t>
   </si>
   <si>
-    <t>海北州中考模拟卷06</t>
+    <t>海南州中考模拟卷06</t>
   </si>
   <si>
     <t>CS0082</t>
   </si>
   <si>
-    <t>海北州中考模拟卷07</t>
+    <t>海南州中考模拟卷07</t>
   </si>
   <si>
     <t>CS0083</t>
   </si>
   <si>
-    <t>海北州中考模拟卷08</t>
+    <t>海南州中考模拟卷08</t>
   </si>
   <si>
     <t>CS0084</t>
   </si>
   <si>
-    <t>海北州中考模拟卷09</t>
+    <t>海南州中考模拟卷09</t>
   </si>
   <si>
     <t>CS0085</t>
   </si>
   <si>
-    <t>海北州中考模拟卷10</t>
+    <t>海南州中考模拟卷10</t>
   </si>
   <si>
     <t>作业模式</t>
@@ -604,9 +610,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>pass</t>
   </si>
   <si>
     <t>自动化发布作业2</t>
@@ -752,7 +755,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -783,8 +786,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF00BF00"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -792,7 +808,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -812,9 +828,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -823,6 +846,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -837,38 +867,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -884,14 +898,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -905,23 +919,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -936,7 +951,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,67 +1005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,19 +1029,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1065,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,43 +1107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,6 +1129,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1132,9 +1147,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,8 +1189,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,37 +1234,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,145 +1250,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1411,11 +1426,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1744,7 +1759,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0833333333333" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -1778,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1791,10 +1806,13 @@
       <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
@@ -1803,12 +1821,15 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
@@ -1817,12 +1838,15 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8">
         <v>2</v>
@@ -1831,27 +1855,32 @@
         <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -1860,12 +1889,15 @@
         <v>7</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
@@ -1874,12 +1906,15 @@
         <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
@@ -1888,12 +1923,15 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
@@ -1902,12 +1940,15 @@
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8">
         <v>2</v>
@@ -1916,12 +1957,15 @@
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
@@ -1930,12 +1974,15 @@
         <v>7</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
@@ -1944,12 +1991,15 @@
         <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
@@ -1958,1023 +2008,1234 @@
         <v>7</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="11">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="11">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F16" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8">
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="8">
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="8">
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B24" s="8">
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="8">
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="8">
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="11">
-        <v>2</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F26" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" s="8">
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" s="8">
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" s="8">
         <v>2</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" s="8">
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="8">
-        <v>2</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D32" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="8">
         <v>2</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="8">
         <v>2</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="8">
         <v>2</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="8">
         <v>2</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" s="8">
         <v>2</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="8">
         <v>2</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="8">
         <v>2</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="11">
-        <v>2</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F39" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="8">
         <v>2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="8">
         <v>2</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="8">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="8">
         <v>2</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="8">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="8">
-        <v>2</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="D46" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B48" s="8">
         <v>2</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B50" s="8">
         <v>2</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="8">
         <v>2</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="8">
         <v>2</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B53" s="8">
         <v>2</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" s="8">
         <v>2</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B55" s="8">
         <v>2</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="8">
         <v>2</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="11">
-        <v>2</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F56" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="8">
+        <v>2</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B58" s="8">
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B59" s="8">
         <v>2</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="8">
+        <v>2</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="8">
-        <v>2</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="D60" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B61" s="8">
         <v>2</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B62" s="8">
         <v>2</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B63" s="8">
         <v>2</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B64" s="8">
         <v>2</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B65" s="8">
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B66" s="8">
         <v>2</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B67" s="8">
         <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B68" s="8">
         <v>2</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>146</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B69" s="8">
         <v>2</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B70" s="11">
-        <v>2</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F69" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="8">
+        <v>2</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B71" s="8">
         <v>2</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B72" s="8">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>154</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B73" s="8">
         <v>2</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>156</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B74" s="8">
         <v>2</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B75" s="8">
         <v>2</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B76" s="8">
         <v>2</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B77" s="8">
         <v>2</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" s="11">
-        <v>2</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="F77" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="8">
+        <v>2</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B79" s="8">
         <v>2</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>168</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B80" s="8">
         <v>2</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" s="11">
-        <v>2</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F80" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="8">
+        <v>2</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B82" s="8">
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B83" s="8">
         <v>2</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>176</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B84" s="8">
         <v>2</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>178</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B85" s="8">
         <v>2</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B86" s="8">
         <v>2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3012,34 +3273,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3050,16 +3311,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3074,30 +3335,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -3109,30 +3370,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -3144,30 +3405,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -3179,30 +3440,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -3214,30 +3475,30 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -3249,30 +3510,30 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -3284,30 +3545,30 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -3319,30 +3580,30 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -3354,30 +3615,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -3389,30 +3650,30 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -3424,30 +3685,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -3459,30 +3720,30 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -3494,24 +3755,24 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F15" s="2">
         <v>8</v>
@@ -3529,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3558,19 +3819,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H1" s="2">
         <v>1</v>
@@ -3582,30 +3843,30 @@
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -3617,30 +3878,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -3652,30 +3913,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -3687,30 +3948,30 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -3722,30 +3983,30 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -3757,30 +4018,30 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -3792,30 +4053,30 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -3827,30 +4088,30 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -3862,30 +4123,30 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -3897,30 +4158,30 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -3932,30 +4193,30 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -3967,30 +4228,30 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -4002,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config/cases.xlsx
+++ b/config/cases.xlsx
@@ -69,70 +69,70 @@
     <t>海南州7AUnit 4单元检测卷01</t>
   </si>
   <si>
+    <t>CS0005</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 5单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0006</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 6单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0007</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 7单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0008</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 8单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0009</t>
+  </si>
+  <si>
+    <t>海南州7AUnit 9单元检测卷01</t>
+  </si>
+  <si>
+    <t>CS0010</t>
+  </si>
+  <si>
+    <t>海南州7A期中检测卷01</t>
+  </si>
+  <si>
+    <t>CS0011</t>
+  </si>
+  <si>
+    <t>海南州7A期中检测卷02</t>
+  </si>
+  <si>
+    <t>CS0012</t>
+  </si>
+  <si>
+    <t>海南州7A期末检测卷01</t>
+  </si>
+  <si>
+    <t>CS0013</t>
+  </si>
+  <si>
+    <t>海南州7A期末检测卷02</t>
+  </si>
+  <si>
+    <t>CS0014</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>海南州7BUnit 01单元检测卷01</t>
+  </si>
+  <si>
     <t>abort</t>
-  </si>
-  <si>
-    <t>CS0005</t>
-  </si>
-  <si>
-    <t>海南州7AUnit 5单元检测卷01</t>
-  </si>
-  <si>
-    <t>CS0006</t>
-  </si>
-  <si>
-    <t>海南州7AUnit 6单元检测卷01</t>
-  </si>
-  <si>
-    <t>CS0007</t>
-  </si>
-  <si>
-    <t>海南州7AUnit 7单元检测卷01</t>
-  </si>
-  <si>
-    <t>CS0008</t>
-  </si>
-  <si>
-    <t>海南州7AUnit 8单元检测卷01</t>
-  </si>
-  <si>
-    <t>CS0009</t>
-  </si>
-  <si>
-    <t>海南州7AUnit 9单元检测卷01</t>
-  </si>
-  <si>
-    <t>CS0010</t>
-  </si>
-  <si>
-    <t>海南州7A期中检测卷01</t>
-  </si>
-  <si>
-    <t>CS0011</t>
-  </si>
-  <si>
-    <t>海南州7A期中检测卷02</t>
-  </si>
-  <si>
-    <t>CS0012</t>
-  </si>
-  <si>
-    <t>海南州7A期末检测卷01</t>
-  </si>
-  <si>
-    <t>CS0013</t>
-  </si>
-  <si>
-    <t>海南州7A期末检测卷02</t>
-  </si>
-  <si>
-    <t>CS0014</t>
-  </si>
-  <si>
-    <t>7B</t>
-  </si>
-  <si>
-    <t>海南州7BUnit 01单元检测卷01</t>
   </si>
   <si>
     <t>CS0015</t>
@@ -749,11 +749,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -798,9 +798,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -808,14 +814,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -829,15 +828,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -846,13 +844,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -867,14 +858,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -882,7 +866,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -898,14 +906,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -919,24 +920,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -951,7 +951,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,31 +1101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,133 +1119,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,11 +1147,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,8 +1187,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,7 +1197,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,26 +1232,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,10 +1250,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,16 +1262,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1280,115 +1280,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1857,13 +1857,13 @@
       <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>16</v>
+      <c r="F5" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
@@ -1872,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>9</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -1889,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>9</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
@@ -1906,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>9</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
@@ -1923,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>9</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>9</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="8">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>9</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
@@ -1974,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>9</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
@@ -1991,7 +1991,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>9</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>9</v>
@@ -2016,19 +2016,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2039,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>39</v>
@@ -2056,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>41</v>
@@ -2073,13 +2073,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>16</v>
+      <c r="F18" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2090,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>45</v>
@@ -2107,13 +2107,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>9</v>
+      <c r="F20" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>49</v>
@@ -2141,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>51</v>
@@ -2158,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>53</v>
@@ -2175,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>55</v>
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>57</v>
@@ -2209,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>59</v>
@@ -2226,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>61</v>
@@ -2243,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>63</v>
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>65</v>
@@ -2277,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>67</v>
@@ -2299,8 +2299,8 @@
       <c r="D31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>16</v>
+      <c r="F31" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2367,8 +2367,8 @@
       <c r="D35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>16</v>
+      <c r="F35" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2418,8 +2418,8 @@
       <c r="D38" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>9</v>
+      <c r="F38" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2469,8 +2469,8 @@
       <c r="D41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>9</v>
+      <c r="F41" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2487,7 +2487,7 @@
         <v>92</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2537,8 +2537,8 @@
       <c r="D45" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>9</v>
+      <c r="F45" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2639,8 +2639,8 @@
       <c r="D51" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>16</v>
+      <c r="F51" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2673,8 +2673,8 @@
       <c r="D53" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>9</v>
+      <c r="F53" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2775,8 +2775,8 @@
       <c r="D59" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>9</v>
+      <c r="F59" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2809,8 +2809,8 @@
       <c r="D61" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="12" t="s">
-        <v>16</v>
+      <c r="F61" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2826,8 +2826,8 @@
       <c r="D62" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>16</v>
+      <c r="F62" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2844,7 +2844,7 @@
         <v>136</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2979,8 +2979,8 @@
       <c r="D71" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>16</v>
+      <c r="F71" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3081,8 +3081,8 @@
       <c r="D77" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>9</v>
+      <c r="F77" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3098,8 +3098,8 @@
       <c r="D78" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>9</v>
+      <c r="F78" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3132,8 +3132,8 @@
       <c r="D80" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F80" s="12" t="s">
-        <v>16</v>
+      <c r="F80" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3217,8 +3217,8 @@
       <c r="D85" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F85" s="12" t="s">
-        <v>16</v>
+      <c r="F85" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3445,7 +3445,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>200</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>200</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>200</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>200</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>200</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>200</v>
